--- a/biology/Botanique/Scutellaria_altissima/Scutellaria_altissima.xlsx
+++ b/biology/Botanique/Scutellaria_altissima/Scutellaria_altissima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Scutellaire élevée ou Scutellaire très élevée, Scutellaria altissima L., est une espèce de plantes de la famille des Lamiacées (Lamiaceae)[1],[2]. Cette plante originaire du pourtour de la Mer Noire et de l'Adriatique, de l'Azerbaïdjan à l'Italie, s'est répandue en Europe[3]. Utilisée en médecine traditionnelle chinoise et par les Amérindiens, elle est parfois cultivée pour ses propriétés médicinales.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Scutellaire élevée ou Scutellaire très élevée, Scutellaria altissima L., est une espèce de plantes de la famille des Lamiacées (Lamiaceae),. Cette plante originaire du pourtour de la Mer Noire et de l'Adriatique, de l'Azerbaïdjan à l'Italie, s'est répandue en Europe. Utilisée en médecine traditionnelle chinoise et par les Amérindiens, elle est parfois cultivée pour ses propriétés médicinales.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Détail du feuillage
@@ -546,13 +560,50 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite en 1753 par le naturaliste suédois Carl von Linné (1707-1778).
-Synonymes
-Cassida altissima (L.) Moench[4]
-Scutellaria commutata Guss.[4]
-sous-espèce Scutellaria altissima subsp. commutata (Guss.) Nyman [5],[4]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite en 1753 par le naturaliste suédois Carl von Linné (1707-1778).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Scutellaria_altissima</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Scutellaria_altissima</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cassida altissima (L.) Moench
+Scutellaria commutata Guss.
+sous-espèce Scutellaria altissima subsp. commutata (Guss.) Nyman ,</t>
         </is>
       </c>
     </row>
